--- a/预测分析表.xlsx
+++ b/预测分析表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>if</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -102,10 +102,6 @@
   </si>
   <si>
     <t>synch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -350,24 +346,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -393,6 +371,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -678,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -698,176 +694,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
+      <c r="A1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
+      <c r="B2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="13"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="16"/>
+      <c r="L7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
